--- a/results/I3_N5_M2_T30_C150_DepCentral_s3_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>327.8426149843255</v>
+        <v>444.4383105104499</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.9426149843276</v>
+        <v>26.43831051044998</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5.06951674225463</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.06951674225463</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72.50999999999785</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>223.39</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -736,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -747,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -758,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -852,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.93048325774539</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22.35722294236247</v>
+        <v>12.5321137415211</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.764296350851815</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.2470593404437</v>
+        <v>23.61204927984102</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>28.17507627316046</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,76 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>161.0299999999998</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>150.1299999999998</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>164.6199999999998</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.2299999999998</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>156.2449999999998</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>131.6650000000005</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>142.3050000000005</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>123.4900000000005</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>145.1950000000005</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>138.0400000000005</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>95.31000000000014</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>90.69000000000014</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>95.24500000000015</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.05</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>93.06000000000014</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>55.62000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>59.11000000000029</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.63000000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>59.33000000000029</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>57.65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>45.97500000000073</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>45.44500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>42.36000000000072</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>55.32000000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>51.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>131.6650000000005</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>142.3050000000005</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>123.4900000000005</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>145.1950000000005</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>138.0400000000005</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>161.0299999999998</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>150.1299999999998</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>164.6199999999998</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>154.2299999999998</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>156.2449999999998</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1519,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11.02999999999977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1299999999998011</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>14.61999999999977</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.229999999999801</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.244999999999773</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1768,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>17.095</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>21.56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>11.26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>16.935</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
